--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5156313333333334</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H2">
         <v>1.546894</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>2.035029120606223</v>
+        <v>1.498861050651777</v>
       </c>
       <c r="R2">
-        <v>18.315262085456</v>
+        <v>13.489749455866</v>
       </c>
       <c r="S2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="T2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5156313333333334</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H3">
         <v>1.546894</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>95.80571679758913</v>
+        <v>95.8057167975891</v>
       </c>
       <c r="R3">
-        <v>862.2514511783021</v>
+        <v>862.251451178302</v>
       </c>
       <c r="S3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="T3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5156313333333334</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H4">
         <v>1.546894</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>60.50388382156246</v>
+        <v>70.67846790207155</v>
       </c>
       <c r="R4">
-        <v>544.5349543940621</v>
+        <v>636.106211118644</v>
       </c>
       <c r="S4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="T4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5156313333333334</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H5">
         <v>1.546894</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>21.37733978971867</v>
+        <v>15.06300227181033</v>
       </c>
       <c r="R5">
-        <v>128.264038738312</v>
+        <v>90.378013630862</v>
       </c>
       <c r="S5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="T5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5156313333333334</v>
+        <v>0.5156313333333333</v>
       </c>
       <c r="H6">
         <v>1.546894</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>72.0667762198398</v>
+        <v>88.46089203660088</v>
       </c>
       <c r="R6">
-        <v>648.6009859785581</v>
+        <v>796.1480283294079</v>
       </c>
       <c r="S6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="T6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
     </row>
   </sheetData>
